--- a/Supreme System Blue Book/System Equations.xlsx
+++ b/Supreme System Blue Book/System Equations.xlsx
@@ -8,27 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\Programming Projects\InterpolationDraping\InterpolationDraping\Supreme System Blue Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD683271-C20C-43A2-90B4-AF7222239403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39765B1-F4B5-4492-88F2-5C22B227F27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="Output" sheetId="2" r:id="rId2"/>
-    <sheet name="Programming" sheetId="3" r:id="rId3"/>
-    <sheet name="Pattern Equations" sheetId="4" r:id="rId4"/>
+    <sheet name="Selection Program" sheetId="3" r:id="rId2"/>
+    <sheet name="Output" sheetId="2" r:id="rId3"/>
+    <sheet name="Coat Equations" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="Coats">Table2[Coats]</definedName>
+    <definedName name="Garment">Table1[Garment Type]</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="156">
   <si>
     <t>Document Source: Link</t>
   </si>
@@ -87,18 +102,9 @@
     <t>How to Use</t>
   </si>
   <si>
-    <t># Dropdown List</t>
-  </si>
-  <si>
-    <t># Dependant dropdown list</t>
-  </si>
-  <si>
     <t>Single and Double Breasted Sack Overcoat</t>
   </si>
   <si>
-    <t>Pattern Dependant Options</t>
-  </si>
-  <si>
     <t>Frock Coats</t>
   </si>
   <si>
@@ -138,16 +144,10 @@
     <t>Frock Coat (Stout)</t>
   </si>
   <si>
-    <t>General:</t>
-  </si>
-  <si>
     <t>Measurements:</t>
   </si>
   <si>
     <t>Forms:</t>
-  </si>
-  <si>
-    <t>Direct Measures:</t>
   </si>
   <si>
     <t>Shoulders</t>
@@ -185,9 +185,6 @@
     <t>Long to Model to Short</t>
   </si>
   <si>
-    <t># Dropdown lists, effectively 1 to 7</t>
-  </si>
-  <si>
     <t>Slope of Shoulder</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
     <t>Stout</t>
   </si>
   <si>
-    <t>Trouble Breasted Vest With Separate Lapel. Also Full  Bress Vest With Small Waisted Effect</t>
-  </si>
-  <si>
     <t>Double Breasted Vest With Separate Lapel</t>
   </si>
   <si>
@@ -330,6 +324,195 @@
   </si>
   <si>
     <t>Bottom</t>
+  </si>
+  <si>
+    <t>Proportionate Trousers</t>
+  </si>
+  <si>
+    <t>Peg Top</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Corpulent</t>
+  </si>
+  <si>
+    <t>Long Front</t>
+  </si>
+  <si>
+    <t>Short Front</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open </t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Large Seat</t>
+  </si>
+  <si>
+    <t>Flat Seat</t>
+  </si>
+  <si>
+    <t>Bow Leg</t>
+  </si>
+  <si>
+    <t>Knock Knee</t>
+  </si>
+  <si>
+    <t># Overall Variations</t>
+  </si>
+  <si>
+    <t>Knickers w Cuff Attached</t>
+  </si>
+  <si>
+    <t>Riding Breeches</t>
+  </si>
+  <si>
+    <t>Spring Bottom Trousers</t>
+  </si>
+  <si>
+    <t>Broad Falls</t>
+  </si>
+  <si>
+    <t>Split Falls</t>
+  </si>
+  <si>
+    <t>Over Gaiters</t>
+  </si>
+  <si>
+    <t>Leggings</t>
+  </si>
+  <si>
+    <t>Double Breasted Vest With Separate Lapel. Also Full  Bress Vest With Small Waisted Effect</t>
+  </si>
+  <si>
+    <t># Some of these styles are variations that need to be considered across styles</t>
+  </si>
+  <si>
+    <t>Coat Particulars</t>
+  </si>
+  <si>
+    <t>Fashionable waist</t>
+  </si>
+  <si>
+    <t>Capes</t>
+  </si>
+  <si>
+    <t>Military Uniforms and Sporting Costumes</t>
+  </si>
+  <si>
+    <t>Clerical Chaplain and Kight Templar Coat</t>
+  </si>
+  <si>
+    <t>Regular and Military</t>
+  </si>
+  <si>
+    <t>Coachman's Coat</t>
+  </si>
+  <si>
+    <t>Footman's Coat</t>
+  </si>
+  <si>
+    <t>Automobile Coat</t>
+  </si>
+  <si>
+    <t>Chauffeur's Sack Coat</t>
+  </si>
+  <si>
+    <t>Policemen's Blouse</t>
+  </si>
+  <si>
+    <t>Policemen s Coat</t>
+  </si>
+  <si>
+    <t>Norfolk Jacket</t>
+  </si>
+  <si>
+    <t>Golf Coat</t>
+  </si>
+  <si>
+    <t>Riding Coat</t>
+  </si>
+  <si>
+    <t>Hunting Sack</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Let us define a coordinate system as positive, positive, irrespective of the direction of those axes, given our origin point has more material on the positive side</t>
+  </si>
+  <si>
+    <t>Garment Type</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t># Laid out similar to book order, but not quite</t>
+  </si>
+  <si>
+    <t>Subtable</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Garments</t>
+  </si>
+  <si>
+    <t>tblGarments</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>tblCoats</t>
+  </si>
+  <si>
+    <t>Sporting</t>
+  </si>
+  <si>
+    <t>TypeSub</t>
+  </si>
+  <si>
+    <t>tblSack_Coats</t>
+  </si>
+  <si>
+    <t>Full  Bress Vest With Small Waisted Effect</t>
+  </si>
+  <si>
+    <t>Proportionate</t>
+  </si>
+  <si>
+    <t>General Measurement</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Direct Measurement</t>
+  </si>
+  <si>
+    <t># 1 to 7, 4 is neutral</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>General Figure</t>
+  </si>
+  <si>
+    <t>Slim, Normal, Corpulent, Stout</t>
+  </si>
+  <si>
+    <t>Here Stout means large waist, Corpulent meaning waist larger than normal figure</t>
   </si>
 </sst>
 </file>
@@ -369,7 +552,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -377,18 +560,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,6 +665,69 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1D0A46F1-5DD7-40DC-91E7-106F92068D8B}" name="Table5" displayName="Table5" ref="B52:C60" totalsRowShown="0">
+  <autoFilter ref="B52:C60" xr:uid="{1D0A46F1-5DD7-40DC-91E7-106F92068D8B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{56141E00-08B7-4CD6-8E84-2824D7B56DE6}" name="General Measurement"/>
+    <tableColumn id="2" xr3:uid="{A9F11CE8-F8E1-4056-A87F-4F52A46420DB}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{86D5E86B-939F-4AE3-A6A4-1176CD6057BE}" name="Table6" displayName="Table6" ref="B62:C71" totalsRowShown="0">
+  <autoFilter ref="B62:C71" xr:uid="{86D5E86B-939F-4AE3-A6A4-1176CD6057BE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7C991EAE-0CFD-403E-ACBD-82F2A9238DB8}" name="Direct Measurement"/>
+    <tableColumn id="2" xr3:uid="{D3963553-B82E-40AE-99BE-1A1CD69D2899}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{51D1F0A5-735F-49E3-BC16-CB60E8A677A6}" name="Table8" displayName="Table8" ref="B73:C78" totalsRowShown="0">
+  <autoFilter ref="B73:C78" xr:uid="{51D1F0A5-735F-49E3-BC16-CB60E8A677A6}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8747B958-B73F-4BBF-B26B-6904EEF9FAB4}" name="Forms:"/>
+    <tableColumn id="2" xr3:uid="{B5EF087E-4265-49F5-86D9-E7B2AA4315ED}" name="# 1 to 7, 4 is neutral"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A0F77F5-00F2-4E16-9BD4-ECD8892ACD79}" name="Table1" displayName="Table1" ref="A4:A10" totalsRowShown="0">
+  <autoFilter ref="A4:A10" xr:uid="{9A0F77F5-00F2-4E16-9BD4-ECD8892ACD79}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{BFC2820A-0460-4BF5-9EE5-296BB7194AA5}" name="Garment Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3161A3F0-5391-4A07-9AB6-E801499309C5}" name="Table2" displayName="Table2" ref="C4:C9" totalsRowShown="0">
+  <autoFilter ref="C4:C9" xr:uid="{3161A3F0-5391-4A07-9AB6-E801499309C5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0BC2322D-F924-4B0D-9781-F17C7D147C00}" name="Coats"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{267F2E52-1C45-4EF0-AA78-DF11C47520D7}" name="Table24" displayName="Table24" ref="D4:D9" totalsRowShown="0">
+  <autoFilter ref="D4:D9" xr:uid="{267F2E52-1C45-4EF0-AA78-DF11C47520D7}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{86C0AF4A-3908-45DF-BB57-BA2EA0CF4232}" name="Subtable"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,16 +993,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G96"/>
+  <dimension ref="B2:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="10" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="10" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -699,432 +1023,597 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
+      <c r="B27" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>76</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>82</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G38" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G41" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G42" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F46" t="s">
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="G59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>16</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" t="s">
+        <v>96</v>
+      </c>
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" t="s">
+        <v>154</v>
+      </c>
+      <c r="G81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G61" t="s">
+      <c r="E86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" t="s">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+      <c r="F97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>99</v>
+      <c r="F99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1136,14 +1625,230 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F2961FD-A787-4CF8-9025-7737A4CBA37D}">
+          <x14:formula1>
+            <xm:f>INDIRECT('Selection Program'!$C$5)</xm:f>
+          </x14:formula1>
+          <xm:sqref>C28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7FEA4D9-EF36-4458-9F59-066B3BB94CDE}">
+          <x14:formula1>
+            <xm:f>'Selection Program'!$A$5:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B28</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2038A9-A628-4046-8762-61CC61C43A8C}">
+  <dimension ref="A1:W31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BBA6B4-1C3B-4C79-BB98-CDE3786229FE}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -1157,7 +1862,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1171,42 +1876,30 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2038A9-A628-4046-8762-61CC61C43A8C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1215,7 +1908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB0D73-498E-414D-A33D-744DBB5FBF62}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Supreme System Blue Book/System Equations.xlsx
+++ b/Supreme System Blue Book/System Equations.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\Programming Projects\InterpolationDraping\InterpolationDraping\Supreme System Blue Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194F705F-26CF-4C5C-BE6B-90EDC6A3E2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221B96A-8BB9-43F9-80D2-0E665AB9CBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12936" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Select Pattern" sheetId="6" r:id="rId2"/>
     <sheet name="Output" sheetId="2" r:id="rId3"/>
-    <sheet name="Logic Page" sheetId="5" r:id="rId4"/>
-    <sheet name="Coat Equations" sheetId="4" r:id="rId5"/>
+    <sheet name="Coat Equations" sheetId="4" r:id="rId4"/>
+    <sheet name="Other Logic" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Measurements1">Home!$B$23:$C$31</definedName>
+    <definedName name="MeasurementsCoats">Home!$B$51:$C$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="199">
   <si>
     <t>Document Source: Link</t>
   </si>
@@ -89,9 +91,6 @@
   </si>
   <si>
     <t>User Inputs</t>
-  </si>
-  <si>
-    <t>Selected Pattern</t>
   </si>
   <si>
     <t>Length of Coat</t>
@@ -216,12 +215,6 @@
     <t># Notes</t>
   </si>
   <si>
-    <t>I will use c as a leader for my construction points.</t>
-  </si>
-  <si>
-    <t>Ex cA, cB, cC, c16</t>
-  </si>
-  <si>
     <t>Mainly so that exaggerations and other modification can use another indicator</t>
   </si>
   <si>
@@ -529,6 +522,150 @@
   </si>
   <si>
     <t>Page</t>
+  </si>
+  <si>
+    <t>Value (in)</t>
+  </si>
+  <si>
+    <t>cm to in (nearest 1/8")</t>
+  </si>
+  <si>
+    <t>Input (cm)</t>
+  </si>
+  <si>
+    <t>Floor (in)</t>
+  </si>
+  <si>
+    <t>Ceiling (in)</t>
+  </si>
+  <si>
+    <t>1/8"</t>
+  </si>
+  <si>
+    <t>1/4"</t>
+  </si>
+  <si>
+    <t>3/8"</t>
+  </si>
+  <si>
+    <t>1/2"</t>
+  </si>
+  <si>
+    <t>5/8"</t>
+  </si>
+  <si>
+    <t>Decimal inches</t>
+  </si>
+  <si>
+    <t>Fractional Inches</t>
+  </si>
+  <si>
+    <t>3/4"</t>
+  </si>
+  <si>
+    <t>7/8"</t>
+  </si>
+  <si>
+    <t>Selected Pattern (Controls output)</t>
+  </si>
+  <si>
+    <t>Technical Particulars</t>
+  </si>
+  <si>
+    <t>The coordinate system is mainly positive, just for sanity. In this document, they align with the book illustrations</t>
+  </si>
+  <si>
+    <t>X+ is left</t>
+  </si>
+  <si>
+    <t>Y+ is down</t>
+  </si>
+  <si>
+    <t>Half Measure Table</t>
+  </si>
+  <si>
+    <t>Half Breast</t>
+  </si>
+  <si>
+    <t>Systematical Outline for Sack Coat</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A to C through B curve</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Maths / Notes</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Reference Points</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Reference Creation</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Origin X</t>
+  </si>
+  <si>
+    <t>Origin Y</t>
+  </si>
+  <si>
+    <t>End X</t>
+  </si>
+  <si>
+    <t>End Y</t>
+  </si>
+  <si>
+    <t>A-E</t>
+  </si>
+  <si>
+    <t>A-Q</t>
+  </si>
+  <si>
+    <t>B-I</t>
+  </si>
+  <si>
+    <t>C-O</t>
   </si>
 </sst>
 </file>
@@ -763,14 +900,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -786,7 +920,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1081,376 +1221,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D67"/>
+  <dimension ref="B2:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C31"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="10" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>139</v>
       </c>
       <c r="C6">
         <v>1907</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25">
+        <f>ROUNDDOWN(F24/2.54*8,0)/8</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26">
+        <f>ROUNDUP(F24/2.54*8,0)/8</f>
+        <v>9.875</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="7">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="7">
+        <v>68</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="9">
+        <v>43</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="E34" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="E35" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="E36" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="C45" s="7"/>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>83</v>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1471,104 +1702,104 @@
   <dimension ref="A1:M705"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="621" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H621" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="622" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B622" t="s">
+        <v>117</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D622" t="s">
+        <v>126</v>
+      </c>
+      <c r="E622" t="s">
+        <v>150</v>
+      </c>
+      <c r="H622" t="s">
+        <v>117</v>
+      </c>
+      <c r="I622" t="s">
+        <v>20</v>
+      </c>
+      <c r="J622" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="L622" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="621" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H621" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="622" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B622" t="s">
-        <v>120</v>
-      </c>
-      <c r="C622" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D622" t="s">
-        <v>129</v>
-      </c>
-      <c r="E622" t="s">
-        <v>153</v>
-      </c>
-      <c r="H622" t="s">
-        <v>120</v>
-      </c>
-      <c r="I622" t="s">
-        <v>21</v>
-      </c>
-      <c r="J622" t="s">
-        <v>146</v>
-      </c>
-      <c r="L622" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="623" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B623" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C623" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D623" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E623">
         <v>16</v>
@@ -1586,27 +1817,27 @@
         <v>Sack Coats</v>
       </c>
       <c r="K623" t="str" cm="1">
-        <f t="array" ref="K623:K628">_xlfn._xlws.FILTER(Table2[Pattern],Table2[Outlines]=C3)</f>
-        <v>Proportional Sack Coat Outline</v>
+        <f t="array" ref="K623:K626">_xlfn._xlws.FILTER(Table2[Pattern],Table2[Outlines]=C3)</f>
+        <v>Full Dress Coat</v>
       </c>
       <c r="L623" t="str" cm="1">
-        <f t="array" ref="L623:L628">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(K623))</f>
-        <v>Proportional Sack Coat Outline</v>
+        <f t="array" ref="L623:L626">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(K623))</f>
+        <v>Full Dress Coat</v>
       </c>
       <c r="M623" t="e" cm="1">
         <f t="array" ref="M623">filt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="624" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B624" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C624" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D624" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H624" t="str">
         <v>Vests</v>
@@ -1618,21 +1849,21 @@
         <v>Frock Coats</v>
       </c>
       <c r="K624" t="str">
-        <v>Corpulent Sack Coat Outline</v>
+        <v>Full Dress Coat without strap or lapel seam</v>
       </c>
       <c r="L624" t="str">
-        <v>Corpulent Sack Coat Outline</v>
-      </c>
-    </row>
-    <row r="625" spans="2:12" x14ac:dyDescent="0.3">
+        <v>Full Dress Coat without strap or lapel seam</v>
+      </c>
+    </row>
+    <row r="625" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B625" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C625" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D625" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I625" t="str">
         <v>Sack Coats</v>
@@ -1641,21 +1872,21 @@
         <v>Sleeves</v>
       </c>
       <c r="K625" t="str">
-        <v>Exaggerated Sack Coat Outline</v>
+        <v>Tuxedo or Dinner Coat</v>
       </c>
       <c r="L625" t="str">
-        <v>Exaggerated Sack Coat Outline</v>
-      </c>
-    </row>
-    <row r="626" spans="2:12" x14ac:dyDescent="0.3">
+        <v>Tuxedo or Dinner Coat</v>
+      </c>
+    </row>
+    <row r="626" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B626" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C626" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D626" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I626" t="str">
         <v>Sack Coats</v>
@@ -1664,21 +1895,21 @@
         <v>Overcoats</v>
       </c>
       <c r="K626" t="str">
-        <v>Regulation Sack Coat</v>
+        <v>Cassock</v>
       </c>
       <c r="L626" t="str">
-        <v>Regulation Sack Coat</v>
-      </c>
-    </row>
-    <row r="627" spans="2:12" x14ac:dyDescent="0.3">
+        <v>Cassock</v>
+      </c>
+    </row>
+    <row r="627" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B627" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C627" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D627" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I627" t="str">
         <v>Sack Coats</v>
@@ -1686,438 +1917,426 @@
       <c r="J627" t="str">
         <v>Evening Dress</v>
       </c>
-      <c r="K627" t="str">
-        <v>Single Breasted Sack Overcoat</v>
-      </c>
-      <c r="L627" t="str">
-        <v>Single Breasted Sack Overcoat</v>
-      </c>
-    </row>
-    <row r="628" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="628" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B628" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C628" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D628" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I628" t="str">
         <v>Sack Coats</v>
       </c>
-      <c r="K628" t="str">
-        <v>Double Breasted Sack Overcoat</v>
-      </c>
-      <c r="L628" t="str">
-        <v>Double Breasted Sack Overcoat</v>
-      </c>
-    </row>
-    <row r="629" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="629" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B629" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C629" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D629" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I629" t="str">
         <v>Frock Coats</v>
       </c>
     </row>
-    <row r="630" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B630" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C630" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D630" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I630" t="str">
         <v>Frock Coats</v>
       </c>
     </row>
-    <row r="631" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B631" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C631" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D631" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I631" t="str">
         <v>Sleeves</v>
       </c>
     </row>
-    <row r="632" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B632" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C632" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D632" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I632" t="str">
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="633" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B633" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C633" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D633" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I633" t="str">
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="634" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B634" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C634" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D634" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I634" t="str">
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="635" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B635" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C635" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D635" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I635" t="str">
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="636" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B636" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C636" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D636" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I636" t="str">
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="637" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B637" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C637" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D637" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I637" t="str">
         <v>Evening Dress</v>
       </c>
     </row>
-    <row r="638" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B638" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C638" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D638" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I638" t="str">
         <v>Evening Dress</v>
       </c>
     </row>
-    <row r="639" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B639" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C639" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D639" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I639" t="str">
         <v>Evening Dress</v>
       </c>
     </row>
-    <row r="640" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B640" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C640" t="s">
+        <v>55</v>
+      </c>
+      <c r="D640" t="s">
         <v>58</v>
-      </c>
-      <c r="D640" t="s">
-        <v>61</v>
       </c>
       <c r="I640" t="str">
         <v>Evening Dress</v>
       </c>
     </row>
-    <row r="641" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C641" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D641" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="642" spans="2:4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C642" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D654" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D655" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="661" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D661" t="s">
+        <v>67</v>
+      </c>
+      <c r="I661" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="662" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D662" t="s">
+        <v>68</v>
+      </c>
+      <c r="I662" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="663" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D663" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="654" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D654" t="s">
+      <c r="I663" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="664" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D664" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="655" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D655" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="661" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D661" t="s">
-        <v>70</v>
-      </c>
-      <c r="I661" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="662" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D662" t="s">
+      <c r="I664" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="665" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I665" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="666" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B666" t="s">
         <v>71</v>
       </c>
-      <c r="I662" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="663" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D663" t="s">
-        <v>72</v>
-      </c>
-      <c r="I663" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="664" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D664" t="s">
-        <v>73</v>
-      </c>
-      <c r="I664" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="665" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I665" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="666" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B666" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="667" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="667" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C667" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="668" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D668" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="669" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D669" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="670" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D670" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="668" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D668" t="s">
+      <c r="E670" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="671" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E671" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="669" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D669" t="s">
+    <row r="672" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E672" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="670" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D670" t="s">
+    <row r="673" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E673" t="s">
         <v>87</v>
       </c>
-      <c r="E670" t="s">
+    </row>
+    <row r="674" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E674" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="675" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E675" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="676" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E676" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="677" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E677" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="678" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E678" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="679" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D679" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="680" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D680" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="681" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D681" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="671" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E671" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="672" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E672" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="673" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E673" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="674" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E674" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="675" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E675" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="676" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E676" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="677" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E677" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="678" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E678" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="679" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D679" t="s">
+    <row r="682" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D682" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="680" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D680" t="s">
+    <row r="683" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D683" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="681" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D681" t="s">
+    <row r="684" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C684" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="682" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D682" t="s">
+    <row r="685" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C685" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="683" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D683" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="684" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C684" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="685" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C685" t="s">
+    <row r="686" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B686" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="693" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C693" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="686" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B686" t="s">
+    <row r="694" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D694" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="695" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C695" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="696" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C696" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="693" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C693" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="694" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D694" t="s">
+    <row r="697" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C697" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="698" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C698" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="695" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C695" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="696" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C696" t="s">
+    <row r="699" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C699" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="697" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C697" t="s">
+    <row r="700" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C700" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="698" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C698" t="s">
+    <row r="701" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C701" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="699" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C699" t="s">
+    <row r="702" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C702" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="700" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C700" t="s">
+    <row r="703" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C703" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="701" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C701" t="s">
+    <row r="704" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C704" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="702" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C702" t="s">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C705" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="703" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C703" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="704" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C704" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C705" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2141,26 +2360,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BBA6B4-1C3B-4C79-BB98-CDE3786229FE}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2170,34 +2389,50 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
-        <v>53</v>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2206,101 +2441,402 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4F2492-3815-4CB4-AB07-85E2012E1B25}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB0D73-498E-414D-A33D-744DBB5FBF62}">
+  <dimension ref="A2:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:B10">Measurements1</f>
+        <v>General Measurement</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Value (in)</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <v>Length of Coat</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <v>Width of Back</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <v>Breast</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5">
+        <f>B6/2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <v>Waist</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <v>Seat</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <v>Sleeve Length</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <v>Height</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <v>Weight</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>B9/2 -5</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>((5*E5/6)+3.5)</f>
+        <v>16.833333333333336</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>E5/3 +3</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="E28">
+        <f>E5+2.25</f>
+        <v>18.25</v>
+      </c>
+      <c r="F28">
+        <f>E5/3 +3</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>B9/4 +0.5</f>
+        <v>17.5</v>
+      </c>
+      <c r="E29">
+        <f>E5+2.25</f>
+        <v>18.25</v>
+      </c>
+      <c r="F29">
+        <f>B9/4 +0.5</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>E5/3</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>D46+3</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f>B9/4 +0.5</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>B9/3 +1</f>
+        <v>23.666666666666668</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>B9/2 -5</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51">
+        <f>E5/3</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D51">
+        <f>D47</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52">
+        <f>C51+1.5</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D52">
+        <f>D47</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53">
+        <f>E5/2</f>
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <f>D47</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54">
+        <f>C53+3.5</f>
+        <v>11.5</v>
+      </c>
+      <c r="D54">
+        <f>D47</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55">
+        <f>C54+(E5/6)</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="D55">
+        <f>D47</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56">
+        <f>E5</f>
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <f>D47</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57">
+        <f>C56+2.25</f>
+        <v>18.25</v>
+      </c>
+      <c r="D57">
+        <f>D47</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB0D73-498E-414D-A33D-744DBB5FBF62}">
-  <dimension ref="A2:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4F2492-3815-4CB4-AB07-85E2012E1B25}">
+  <dimension ref="B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:B10">Measurements1</f>
-        <v>General Measurement</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Value</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>Length of Coat</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>Width of Back</v>
-      </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>Breast</v>
-      </c>
-      <c r="B5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <v>Waist</v>
-      </c>
-      <c r="B6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <v>Seat</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <v>Sleeve Length</v>
-      </c>
-      <c r="B8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <v>Height</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <v>Weight</v>
-      </c>
-      <c r="B10">
-        <v>43</v>
-      </c>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Supreme System Blue Book/System Equations.xlsx
+++ b/Supreme System Blue Book/System Equations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\Programming Projects\InterpolationDraping\InterpolationDraping\Supreme System Blue Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221B96A-8BB9-43F9-80D2-0E665AB9CBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF55316-63B9-4E81-9980-F8301AD65738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12936" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12936" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
   <definedNames>
     <definedName name="Measurements1">Home!$B$23:$C$31</definedName>
     <definedName name="MeasurementsCoats">Home!$B$51:$C$52</definedName>
+    <definedName name="ROUNDEIGHTH" comment="Rounds an in. measurement to nearest eighth">_xlfn.LAMBDA(_xlpm.α,(ROUND(_xlpm.α*8,0)/8))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,6 +42,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jacob</author>
+  </authors>
+  <commentList>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{7517368F-A0AF-4C2E-A9B7-97333AAE68DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jacob:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Uses Lambda function
+"ROUNDEIGHTH" to round to nearest eighth</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="203">
   <si>
     <t>Document Source: Link</t>
   </si>
@@ -666,13 +701,25 @@
   </si>
   <si>
     <t>C-O</t>
+  </si>
+  <si>
+    <t>Human Readable</t>
+  </si>
+  <si>
+    <t>(Create Main Vertical)</t>
+  </si>
+  <si>
+    <t>Function for closest match</t>
+  </si>
+  <si>
+    <t>Closest (in)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +742,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1220,34 +1280,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G83"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>133</v>
       </c>
@@ -1255,7 +1315,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>134</v>
       </c>
@@ -1263,7 +1323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>136</v>
       </c>
@@ -1271,74 +1331,74 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
     </row>
-    <row r="15" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>119</v>
       </c>
@@ -1348,8 +1408,11 @@
       <c r="E23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1441,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>10</v>
       </c>
@@ -1393,55 +1456,56 @@
         <v>9.875</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">ROUNDEIGHTH((F24/2.54))</f>
+        <v>9.875</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="7">
         <v>37</v>
       </c>
-      <c r="E28" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="7">
         <v>68</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>156</v>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>15</v>
       </c>
@@ -1449,21 +1513,21 @@
         <v>43</v>
       </c>
       <c r="E31" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>121</v>
       </c>
@@ -1471,91 +1535,97 @@
         <v>120</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="7"/>
       <c r="E34" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="7"/>
       <c r="E35" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="7"/>
       <c r="E36" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="9"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>28</v>
       </c>
@@ -1564,7 +1634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>29</v>
       </c>
@@ -1573,7 +1643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
         <v>34</v>
       </c>
@@ -1582,7 +1652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>35</v>
       </c>
@@ -1591,7 +1661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>36</v>
       </c>
@@ -1600,7 +1670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>101</v>
       </c>
@@ -1608,78 +1678,78 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C52" s="14"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>167</v>
       </c>
@@ -1693,6 +1763,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1706,22 +1777,22 @@
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
         <v>138</v>
       </c>
@@ -1744,7 +1815,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>59</v>
       </c>
@@ -1755,17 +1826,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="621" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H621" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="622" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B622" t="s">
         <v>117</v>
       </c>
@@ -1791,7 +1862,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="623" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B623" t="s">
         <v>59</v>
       </c>
@@ -1829,7 +1900,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="624" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B624" t="s">
         <v>59</v>
       </c>
@@ -1855,7 +1926,7 @@
         <v>Full Dress Coat without strap or lapel seam</v>
       </c>
     </row>
-    <row r="625" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B625" t="s">
         <v>59</v>
       </c>
@@ -1878,7 +1949,7 @@
         <v>Tuxedo or Dinner Coat</v>
       </c>
     </row>
-    <row r="626" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B626" t="s">
         <v>59</v>
       </c>
@@ -1901,7 +1972,7 @@
         <v>Cassock</v>
       </c>
     </row>
-    <row r="627" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B627" t="s">
         <v>59</v>
       </c>
@@ -1918,7 +1989,7 @@
         <v>Evening Dress</v>
       </c>
     </row>
-    <row r="628" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B628" t="s">
         <v>59</v>
       </c>
@@ -1932,7 +2003,7 @@
         <v>Sack Coats</v>
       </c>
     </row>
-    <row r="629" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B629" t="s">
         <v>59</v>
       </c>
@@ -1946,7 +2017,7 @@
         <v>Frock Coats</v>
       </c>
     </row>
-    <row r="630" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B630" t="s">
         <v>59</v>
       </c>
@@ -1960,7 +2031,7 @@
         <v>Frock Coats</v>
       </c>
     </row>
-    <row r="631" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B631" t="s">
         <v>59</v>
       </c>
@@ -1974,7 +2045,7 @@
         <v>Sleeves</v>
       </c>
     </row>
-    <row r="632" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B632" t="s">
         <v>59</v>
       </c>
@@ -1988,7 +2059,7 @@
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="633" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B633" t="s">
         <v>59</v>
       </c>
@@ -2002,7 +2073,7 @@
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="634" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B634" t="s">
         <v>59</v>
       </c>
@@ -2016,7 +2087,7 @@
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="635" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B635" t="s">
         <v>59</v>
       </c>
@@ -2030,7 +2101,7 @@
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="636" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B636" t="s">
         <v>59</v>
       </c>
@@ -2044,7 +2115,7 @@
         <v>Overcoats</v>
       </c>
     </row>
-    <row r="637" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B637" t="s">
         <v>59</v>
       </c>
@@ -2058,7 +2129,7 @@
         <v>Evening Dress</v>
       </c>
     </row>
-    <row r="638" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B638" t="s">
         <v>59</v>
       </c>
@@ -2072,7 +2143,7 @@
         <v>Evening Dress</v>
       </c>
     </row>
-    <row r="639" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B639" t="s">
         <v>59</v>
       </c>
@@ -2086,7 +2157,7 @@
         <v>Evening Dress</v>
       </c>
     </row>
-    <row r="640" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B640" t="s">
         <v>59</v>
       </c>
@@ -2100,7 +2171,7 @@
         <v>Evening Dress</v>
       </c>
     </row>
-    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B641" t="s">
         <v>60</v>
       </c>
@@ -2111,7 +2182,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B642" t="s">
         <v>60</v>
       </c>
@@ -2119,17 +2190,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D654" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D655" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="661" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D661" t="s">
         <v>67</v>
       </c>
@@ -2137,7 +2208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="662" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D662" t="s">
         <v>68</v>
       </c>
@@ -2145,7 +2216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="663" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D663" t="s">
         <v>69</v>
       </c>
@@ -2153,7 +2224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="664" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D664" t="s">
         <v>70</v>
       </c>
@@ -2161,32 +2232,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I665" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="666" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B666" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="667" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C667" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="668" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D668" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="669" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D669" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="670" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D670" t="s">
         <v>84</v>
       </c>
@@ -2194,147 +2265,147 @@
         <v>93</v>
       </c>
     </row>
-    <row r="671" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E671" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="672" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E672" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="673" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E673" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="674" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E674" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="675" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E675" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="676" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E676" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="677" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E677" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="678" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E678" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="679" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D679" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="680" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D680" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="681" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D681" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="682" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D682" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="683" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D683" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="684" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C684" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="685" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C685" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="686" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B686" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="693" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C693" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="694" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D694" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="695" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C695" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="696" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C696" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="697" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C697" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="698" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C698" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="699" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C699" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="700" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C700" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="701" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C701" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="702" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C702" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="703" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C703" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="704" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C704" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C705" t="s">
         <v>116</v>
       </c>
@@ -2366,9 +2437,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2379,7 +2450,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2396,7 +2467,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -2410,27 +2481,27 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
         <v>48</v>
       </c>
@@ -2442,15 +2513,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB0D73-498E-414D-A33D-744DBB5FBF62}">
-  <dimension ref="A2:I57"/>
+  <dimension ref="A2:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:B10">Measurements1</f>
         <v>General Measurement</v>
@@ -2465,7 +2536,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>Length of Coat</v>
       </c>
@@ -2473,7 +2544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <v>Width of Back</v>
       </c>
@@ -2481,7 +2552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <v>Breast</v>
       </c>
@@ -2496,7 +2567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <v>Waist</v>
       </c>
@@ -2504,7 +2575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <v>Seat</v>
       </c>
@@ -2512,7 +2583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <v>Sleeve Length</v>
       </c>
@@ -2520,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <v>Height</v>
       </c>
@@ -2528,7 +2599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <v>Weight</v>
       </c>
@@ -2536,306 +2607,340 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
         <v>189</v>
       </c>
-      <c r="I24" t="s">
+      <c r="R24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
         <v>190</v>
       </c>
-      <c r="C25" t="s">
+      <c r="L25" t="s">
         <v>191</v>
       </c>
-      <c r="D25" t="s">
+      <c r="M25" t="s">
         <v>192</v>
       </c>
-      <c r="E25" t="s">
+      <c r="N25" t="s">
         <v>193</v>
       </c>
-      <c r="F25" t="s">
+      <c r="O25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="str">
+        <f t="shared" ref="B26" si="0">_xlfn.CONCAT("From origin point A, square down just more than ",M50,"in. Mark these points along the line:" )</f>
+        <v>From origin point A, square down just more than 29in. Mark these points along the line:</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="K26" t="s">
         <v>195</v>
       </c>
-      <c r="C26">
+      <c r="L26">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="M26">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="N26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="O26">
         <f>B9/2 -5</f>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="K27" t="s">
         <v>196</v>
       </c>
-      <c r="C27">
+      <c r="L27">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="N27">
         <f>((5*E5/6)+3.5)</f>
         <v>16.833333333333336</v>
       </c>
-      <c r="F27">
+      <c r="O27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
         <v>197</v>
       </c>
-      <c r="C28">
+      <c r="L28">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="M28">
         <f>E5/3 +3</f>
         <v>8.3333333333333321</v>
       </c>
-      <c r="E28">
+      <c r="N28">
         <f>E5+2.25</f>
         <v>18.25</v>
       </c>
-      <c r="F28">
+      <c r="O28">
         <f>E5/3 +3</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
         <v>198</v>
       </c>
-      <c r="C29">
+      <c r="L29">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="M29">
         <f>B9/4 +0.5</f>
         <v>17.5</v>
       </c>
-      <c r="E29">
+      <c r="N29">
         <f>E5+2.25</f>
         <v>18.25</v>
       </c>
-      <c r="F29">
+      <c r="O29">
         <f>B9/4 +0.5</f>
         <v>17.5</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
         <v>5</v>
       </c>
-      <c r="C44" t="s">
+      <c r="L44" t="s">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
+      <c r="M44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
         <v>173</v>
       </c>
-      <c r="C45">
+      <c r="L45">
         <v>0</v>
       </c>
-      <c r="D45">
+      <c r="M45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
         <v>175</v>
       </c>
-      <c r="C46">
+      <c r="L46">
         <v>0</v>
       </c>
-      <c r="D46">
+      <c r="M46">
         <f>E5/3</f>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
         <v>177</v>
       </c>
-      <c r="C47">
+      <c r="L47">
         <v>0</v>
       </c>
-      <c r="D47">
-        <f>D46+3</f>
+      <c r="M47">
+        <f>M46+3</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
         <v>178</v>
       </c>
-      <c r="C48">
+      <c r="L48">
         <v>0</v>
       </c>
-      <c r="D48">
+      <c r="M48">
         <f>B9/4 +0.5</f>
         <v>17.5</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
         <v>179</v>
       </c>
-      <c r="C49">
+      <c r="L49">
         <v>0</v>
       </c>
-      <c r="D49">
+      <c r="M49">
         <f>B9/3 +1</f>
         <v>23.666666666666668</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
         <v>180</v>
       </c>
-      <c r="C50">
+      <c r="L50">
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="M50">
         <f>B9/2 -5</f>
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
         <v>181</v>
       </c>
-      <c r="C51">
+      <c r="L51">
         <f>E5/3</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D51">
-        <f>D47</f>
+      <c r="M51">
+        <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
         <v>182</v>
       </c>
-      <c r="C52">
-        <f>C51+1.5</f>
+      <c r="L52">
+        <f>L51+1.5</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="D52">
-        <f>D47</f>
+      <c r="M52">
+        <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K53" t="s">
         <v>183</v>
       </c>
-      <c r="C53">
+      <c r="L53">
         <f>E5/2</f>
         <v>8</v>
       </c>
-      <c r="D53">
-        <f>D47</f>
+      <c r="M53">
+        <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K54" t="s">
         <v>184</v>
       </c>
-      <c r="C54">
-        <f>C53+3.5</f>
+      <c r="L54">
+        <f>L53+3.5</f>
         <v>11.5</v>
       </c>
-      <c r="D54">
-        <f>D47</f>
+      <c r="M54">
+        <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K55" t="s">
         <v>186</v>
       </c>
-      <c r="C55">
-        <f>C54+(E5/6)</f>
+      <c r="L55">
+        <f>L54+(E5/6)</f>
         <v>14.166666666666666</v>
       </c>
-      <c r="D55">
-        <f>D47</f>
+      <c r="M55">
+        <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K56" t="s">
         <v>187</v>
       </c>
-      <c r="C56">
+      <c r="L56">
         <f>E5</f>
         <v>16</v>
       </c>
-      <c r="D56">
-        <f>D47</f>
+      <c r="M56">
+        <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K57" t="s">
         <v>188</v>
       </c>
-      <c r="C57">
-        <f>C56+2.25</f>
+      <c r="L57">
+        <f>L56+2.25</f>
         <v>18.25</v>
       </c>
-      <c r="D57">
-        <f>D47</f>
+      <c r="M57">
+        <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B26:I27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4F2492-3815-4CB4-AB07-85E2012E1B25}">
-  <dimension ref="B5"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="e" cm="1">
+        <f t="array" ref="B2">Lam</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="19"/>
     </row>
   </sheetData>

--- a/Supreme System Blue Book/System Equations.xlsx
+++ b/Supreme System Blue Book/System Equations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\Programming Projects\InterpolationDraping\InterpolationDraping\Supreme System Blue Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF55316-63B9-4E81-9980-F8301AD65738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B98BB22-5767-42D5-9A61-6822E4EAF31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12936" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="Other Logic" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="INTERPOLATELAMBDA">LAMBDA</definedName>
     <definedName name="Measurements1">Home!$B$23:$C$31</definedName>
     <definedName name="MeasurementsCoats">Home!$B$51:$C$52</definedName>
     <definedName name="ROUNDEIGHTH" comment="Rounds an in. measurement to nearest eighth">_xlfn.LAMBDA(_xlpm.α,(ROUND(_xlpm.α*8,0)/8))</definedName>
+    <definedName name="ROUNDSIXTEENTH">_xlfn.LAMBDA(_xlpm.α,(ROUND(_xlpm.α*16,0)/16))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -102,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="229">
   <si>
     <t>Document Source: Link</t>
   </si>
@@ -709,10 +711,88 @@
     <t>(Create Main Vertical)</t>
   </si>
   <si>
-    <t>Function for closest match</t>
-  </si>
-  <si>
     <t>Closest (in)</t>
+  </si>
+  <si>
+    <t>D-U</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>G'-U</t>
+  </si>
+  <si>
+    <t>H'-E'</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>1/16"</t>
+  </si>
+  <si>
+    <t>3/16"</t>
+  </si>
+  <si>
+    <t>5/16"</t>
+  </si>
+  <si>
+    <t>7/16"</t>
+  </si>
+  <si>
+    <t>9/16"</t>
+  </si>
+  <si>
+    <t>11/16"</t>
+  </si>
+  <si>
+    <t>13/16"</t>
+  </si>
+  <si>
+    <t>15/16"</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Square down these points to the indicated length:</t>
+  </si>
+  <si>
+    <t>Connect points W and R, and mark point K  where this line crosses the square down from H1</t>
+  </si>
+  <si>
+    <t>Connect points X and Z, and mark point J where this line crosses the square down from G1</t>
+  </si>
+  <si>
+    <t>Connect points P and J</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Edit measurements on Main Page</t>
   </si>
 </sst>
 </file>
@@ -757,12 +837,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -960,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -984,8 +1070,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1003,6 +1097,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>178250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>32084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>207445</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>131750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66420835-6A27-61C3-4AC6-820922E86960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8544208" y="6120063"/>
+          <a:ext cx="4296395" cy="5634192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G83"/>
+  <dimension ref="B2:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1337,68 +1486,68 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>119</v>
       </c>
@@ -1408,11 +1557,8 @@
       <c r="E23" t="s">
         <v>152</v>
       </c>
-      <c r="G23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>8</v>
       </c>
@@ -1426,7 +1572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>9</v>
       </c>
@@ -1441,12 +1587,12 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
         <v>155</v>
@@ -1456,7 +1602,7 @@
         <v>9.875</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
@@ -1464,14 +1610,14 @@
         <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">ROUNDEIGHTH((F24/2.54))</f>
         <v>9.875</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>12</v>
       </c>
@@ -1479,7 +1625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>13</v>
       </c>
@@ -1491,12 +1637,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1505,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>15</v>
       </c>
@@ -1513,18 +1659,18 @@
         <v>43</v>
       </c>
       <c r="E31" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>0.125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E32" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32">
-        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
@@ -1535,10 +1681,10 @@
         <v>120</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="F33">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -1547,10 +1693,10 @@
       </c>
       <c r="C34" s="7"/>
       <c r="E34" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
@@ -1559,10 +1705,10 @@
       </c>
       <c r="C35" s="7"/>
       <c r="E35" s="20" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="F35">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
@@ -1571,10 +1717,10 @@
       </c>
       <c r="C36" s="7"/>
       <c r="E36" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F36">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
@@ -1583,10 +1729,10 @@
       </c>
       <c r="C37" s="7"/>
       <c r="E37" s="20" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="F37">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -1594,36 +1740,80 @@
         <v>42</v>
       </c>
       <c r="C38" s="7"/>
+      <c r="E38" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="7"/>
+      <c r="E39" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39">
+        <v>0.5625</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="7"/>
+      <c r="E40" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="7"/>
+      <c r="E41" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41">
+        <v>0.6875</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="9"/>
+      <c r="E42" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E43" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C44" s="5"/>
+      <c r="E44" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
@@ -1632,6 +1822,12 @@
       <c r="C45" s="7"/>
       <c r="D45" t="s">
         <v>30</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
@@ -1773,8 +1969,8 @@
   <dimension ref="A1:M705"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,16 +2016,28 @@
         <v>59</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>148</v>
       </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
     </row>
     <row r="621" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H621" t="s">
@@ -1888,12 +2096,12 @@
         <v>Sack Coats</v>
       </c>
       <c r="K623" t="str" cm="1">
-        <f t="array" ref="K623:K626">_xlfn._xlws.FILTER(Table2[Pattern],Table2[Outlines]=C3)</f>
-        <v>Full Dress Coat</v>
+        <f t="array" ref="K623:K628">_xlfn._xlws.FILTER(Table2[Pattern],Table2[Outlines]=C3)</f>
+        <v>Proportional Sack Coat Outline</v>
       </c>
       <c r="L623" t="str" cm="1">
-        <f t="array" ref="L623:L626">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(K623))</f>
-        <v>Full Dress Coat</v>
+        <f t="array" ref="L623:L628">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(K623))</f>
+        <v>Proportional Sack Coat Outline</v>
       </c>
       <c r="M623" t="e" cm="1">
         <f t="array" ref="M623">filt</f>
@@ -1920,10 +2128,10 @@
         <v>Frock Coats</v>
       </c>
       <c r="K624" t="str">
-        <v>Full Dress Coat without strap or lapel seam</v>
+        <v>Corpulent Sack Coat Outline</v>
       </c>
       <c r="L624" t="str">
-        <v>Full Dress Coat without strap or lapel seam</v>
+        <v>Corpulent Sack Coat Outline</v>
       </c>
     </row>
     <row r="625" spans="2:12" x14ac:dyDescent="0.3">
@@ -1943,10 +2151,10 @@
         <v>Sleeves</v>
       </c>
       <c r="K625" t="str">
-        <v>Tuxedo or Dinner Coat</v>
+        <v>Exaggerated Sack Coat Outline</v>
       </c>
       <c r="L625" t="str">
-        <v>Tuxedo or Dinner Coat</v>
+        <v>Exaggerated Sack Coat Outline</v>
       </c>
     </row>
     <row r="626" spans="2:12" x14ac:dyDescent="0.3">
@@ -1966,10 +2174,10 @@
         <v>Overcoats</v>
       </c>
       <c r="K626" t="str">
-        <v>Cassock</v>
+        <v>Regulation Sack Coat</v>
       </c>
       <c r="L626" t="str">
-        <v>Cassock</v>
+        <v>Regulation Sack Coat</v>
       </c>
     </row>
     <row r="627" spans="2:12" x14ac:dyDescent="0.3">
@@ -1988,6 +2196,12 @@
       <c r="J627" t="str">
         <v>Evening Dress</v>
       </c>
+      <c r="K627" t="str">
+        <v>Single Breasted Sack Overcoat</v>
+      </c>
+      <c r="L627" t="str">
+        <v>Single Breasted Sack Overcoat</v>
+      </c>
     </row>
     <row r="628" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B628" t="s">
@@ -2001,6 +2215,12 @@
       </c>
       <c r="I628" t="str">
         <v>Sack Coats</v>
+      </c>
+      <c r="K628" t="str">
+        <v>Double Breasted Sack Overcoat</v>
+      </c>
+      <c r="L628" t="str">
+        <v>Double Breasted Sack Overcoat</v>
       </c>
     </row>
     <row r="629" spans="2:12" x14ac:dyDescent="0.3">
@@ -2433,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BBA6B4-1C3B-4C79-BB98-CDE3786229FE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,98 +2733,129 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB0D73-498E-414D-A33D-744DBB5FBF62}">
-  <dimension ref="A2:R57"/>
+  <dimension ref="A2:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45:M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="str" cm="1">
+      <c r="A2" s="23" t="str" cm="1">
         <f t="array" ref="A2:B10">Measurements1</f>
         <v>General Measurement</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="23" t="str">
         <v>Value (in)</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="23" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
+      <c r="A3" s="23" t="str">
         <v>Length of Coat</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="23">
         <v>45</v>
       </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
+      <c r="A4" s="23" t="str">
         <v>Width of Back</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="23">
         <v>23</v>
       </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+      <c r="A5" s="23" t="str">
         <v>Breast</v>
       </c>
-      <c r="B5">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="23">
+        <v>38</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="23">
         <f>B6/2</f>
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+      <c r="A6" s="23" t="str">
         <v>Waist</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="23">
         <v>32</v>
       </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+      <c r="A7" s="23" t="str">
         <v>Seat</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="23">
         <v>37</v>
       </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+      <c r="A8" s="23" t="str">
         <v>Sleeve Length</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="23">
         <v>0</v>
       </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+      <c r="A9" s="23" t="str">
         <v>Height</v>
       </c>
-      <c r="B9">
-        <v>68</v>
-      </c>
+      <c r="B9" s="23">
+        <v>70</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+      <c r="A10" s="23" t="str">
         <v>Weight</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="23">
         <v>43</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
@@ -2644,106 +2895,279 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="str">
-        <f t="shared" ref="B26" si="0">_xlfn.CONCAT("From origin point A, square down just more than ",M50,"in. Mark these points along the line:" )</f>
-        <v>From origin point A, square down just more than 29in. Mark these points along the line:</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="24" t="str">
+        <f>_xlfn.CONCAT("From origin point A, square down just more than ",M50,"in. Mark these points along the line, measured from A:" )</f>
+        <v>From origin point A, square down just more than 30in. Mark these points along the line, measured from A:</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
       <c r="K26" t="s">
         <v>195</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="21">
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="21">
         <v>0</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="21">
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="21">
         <f>B9/2 -5</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
       <c r="K27" t="s">
         <v>196</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="21">
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="21">
         <v>0</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="21">
         <f>((5*E5/6)+3.5)</f>
         <v>16.833333333333336</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" t="str" cm="1">
+        <f t="array" ref="B28">_xlfn.CONCAT("Point Z at ", ROUNDDOWN(M66,0), " &amp; ",MOD(ROUNDSIXTEENTH(M66),1)*16,"/16 in")</f>
+        <v>Point Z at 3 &amp; 5/16 in</v>
+      </c>
       <c r="K28" t="s">
         <v>197</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="21">
         <v>0</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="21">
         <f>E5/3 +3</f>
         <v>8.3333333333333321</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="21">
         <f>E5+2.25</f>
         <v>18.25</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="21">
         <f>E5/3 +3</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <f>_xlfn.CONCAT("Point V at ", ROUNDEIGHTH(M46),"in")</f>
+        <v>Point V at 5.375in</v>
+      </c>
       <c r="K29" t="s">
         <v>198</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="21">
         <v>0</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="21">
         <f>B9/4 +0.5</f>
-        <v>17.5</v>
-      </c>
-      <c r="N29">
+        <v>18</v>
+      </c>
+      <c r="N29" s="21">
         <f>E5+2.25</f>
         <v>18.25</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="21">
         <f>B9/4 +0.5</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="43" spans="11:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <f>_xlfn.CONCAT("Point B at ", ROUNDEIGHTH(M47),"in")</f>
+        <v>Point B at 8.375in</v>
+      </c>
+      <c r="K30" t="s">
+        <v>202</v>
+      </c>
+      <c r="L30" s="21">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <f>M49</f>
+        <v>24.333333333333332</v>
+      </c>
+      <c r="N30" s="21">
+        <f>L54</f>
+        <v>11.5</v>
+      </c>
+      <c r="O30" s="21">
+        <f>M30</f>
+        <v>24.333333333333332</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <f>_xlfn.CONCAT("Point C at ", ROUNDEIGHTH(M48),"in")</f>
+        <v>Point C at 18in</v>
+      </c>
+      <c r="K31" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" s="21">
+        <f>L54</f>
+        <v>11.5</v>
+      </c>
+      <c r="M31" s="21">
+        <v>0</v>
+      </c>
+      <c r="N31" s="21">
+        <f>L31</f>
+        <v>11.5</v>
+      </c>
+      <c r="O31" s="21">
+        <f>O30</f>
+        <v>24.333333333333332</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("Point D at ", ROUNDEIGHTH(M49),"in")</f>
+        <v>Point D at 24.375in</v>
+      </c>
+      <c r="K32" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="21">
+        <f>L52</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="M32" s="21">
+        <v>0</v>
+      </c>
+      <c r="N32" s="21">
+        <f>L32</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="O32" s="21">
+        <f>O26</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <f>_xlfn.CONCAT("Point E at ", ROUNDEIGHTH(M50),"in")</f>
+        <v>Point E at 30in</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="str">
+        <f>_xlfn.CONCAT("From origin point A, square across just more than ",ROUNDEIGHTH(L62),"in. Mark these points along the line, measured from A:")</f>
+        <v>From origin point A, square across just more than 16.875in. Mark these points along the line, measured from A:</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <f>_xlfn.CONCAT("Point T at ", ROUNDEIGHTH(L63),"in")</f>
+        <v>Point T at 2.625in</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <f>_xlfn.CONCAT("Point H1 at ", ROUNDEIGHTH(L52),"in")</f>
+        <v>Point H1 at 6.875in</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <f>_xlfn.CONCAT("Point G1 at ", ROUNDEIGHTH(L54),"in")</f>
+        <v>Point G1 at 11.5in</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <f>_xlfn.CONCAT("Point X at ", ROUNDEIGHTH(L61),"in")</f>
+        <v>Point X at 14.125in</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <f>_xlfn.CONCAT("Point Q at ", ROUNDEIGHTH(L62),"in")</f>
+        <v>Point Q at 16.875in</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="M41" cm="1">
+        <f t="array" ref="M41">ROUNDDOWN(ROUNDSIXTEENTH(45),0)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <f>_xlfn.CONCAT("Square up from Point T ", (-M64), "in, and mark point R at this point")</f>
+        <v>Square up from Point T 0.75in, and mark point R at this point</v>
+      </c>
       <c r="K43" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f>_xlfn.CONCAT("Square down from Point H1 just more than ", (ROUNDEIGHTH(M50)), "in")</f>
+        <v>Square down from Point H1 just more than 30in</v>
+      </c>
       <c r="K44" t="s">
         <v>5</v>
       </c>
@@ -2754,173 +3178,520 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <f>_xlfn.CONCAT("Square down from Point G1 just more than ", (ROUNDEIGHTH(M49)), "in")</f>
+        <v>Square down from Point G1 just more than 24.375in</v>
+      </c>
       <c r="K45" t="s">
         <v>173</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="21">
         <v>0</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K46" t="s">
         <v>175</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="21">
         <v>0</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="21">
         <f>E5/3</f>
         <v>5.333333333333333</v>
       </c>
-    </row>
-    <row r="47" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="24" t="str">
+        <f>_xlfn.CONCAT("From point B, square across just more than ",ROUNDEIGHTH(L59),"in. Mark these points along the line, measured from B:")</f>
+        <v>From point B, square across just more than 18.25in. Mark these points along the line, measured from B:</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
       <c r="K47" t="s">
         <v>177</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="21">
         <v>0</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="21">
         <f>M46+3</f>
         <v>8.3333333333333321</v>
       </c>
-    </row>
-    <row r="48" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
       <c r="K48" t="s">
         <v>178</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="21">
         <v>0</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="21">
         <f>B9/4 +0.5</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <f>_xlfn.CONCAT("At the intersection of lines (", (ROUNDEIGHTH(L52)), "in away from line A), mark the letter H ")</f>
+        <v xml:space="preserve">At the intersection of lines (6.875in away from line A), mark the letter H </v>
+      </c>
       <c r="K49" t="s">
         <v>179</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="21">
         <v>0</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="21">
         <f>B9/3 +1</f>
-        <v>23.666666666666668</v>
-      </c>
-    </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.3">
+        <v>24.333333333333332</v>
+      </c>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <f>_xlfn.CONCAT("At the intersection of lines (", (ROUNDEIGHTH(L54)), "in away from line A), mark the letter G ")</f>
+        <v xml:space="preserve">At the intersection of lines (11.5in away from line A), mark the letter G </v>
+      </c>
       <c r="K50" t="s">
         <v>180</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="21">
         <v>0</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="21">
         <f>B9/2 -5</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="11:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <f>_xlfn.CONCAT("At ", (ROUNDEIGHTH(L57)), "in away from line A, mark the letter W")</f>
+        <v>At 14.125in away from line A, mark the letter W</v>
+      </c>
       <c r="K51" t="s">
         <v>181</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="21">
         <f>E5/3</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="21">
         <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
-    </row>
-    <row r="52" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" t="str">
+        <f>_xlfn.CONCAT("At ", (ROUNDEIGHTH(L58)), "in away from line A, mark the letter ",K58,". This is the breast measurement.")</f>
+        <v>At 16in away from line A, mark the letter N. This is the breast measurement.</v>
+      </c>
       <c r="K52" t="s">
         <v>182</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="21">
         <f>L51+1.5</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="21">
         <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
-    </row>
-    <row r="53" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <f>_xlfn.CONCAT("At ", (ROUNDEIGHTH(L59)), "in away from line A, mark the letter ",K59)</f>
+        <v>At 18.25in away from line A, mark the letter I</v>
+      </c>
       <c r="K53" t="s">
         <v>183</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="21">
         <f>E5/2</f>
         <v>8</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="21">
         <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
-    </row>
-    <row r="54" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K54" t="s">
         <v>184</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="21">
         <f>L53+3.5</f>
         <v>11.5</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="21">
         <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
-    </row>
-    <row r="55" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="24" t="str">
+        <f>_xlfn.CONCAT("From point C, square across just more than ",ROUNDEIGHTH(L59),"in. Mark these points along the line, measured from C:")</f>
+        <v>From point C, square across just more than 18.25in. Mark these points along the line, measured from C:</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
       <c r="K55" t="s">
+        <v>204</v>
+      </c>
+      <c r="L55" s="21">
+        <f>L54</f>
+        <v>11.5</v>
+      </c>
+      <c r="M55" s="21">
+        <f>M48</f>
+        <v>18</v>
+      </c>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="K56" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" s="21">
+        <f>L54</f>
+        <v>11.5</v>
+      </c>
+      <c r="M56" s="21">
+        <f>M49</f>
+        <v>24.333333333333332</v>
+      </c>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <f>_xlfn.CONCAT("At the intersection of lines (", (ROUNDEIGHTH(L54)), "in away from line A), mark the letter L")</f>
+        <v>At the intersection of lines (11.5in away from line A), mark the letter L</v>
+      </c>
+      <c r="K57" t="s">
         <v>186</v>
       </c>
-      <c r="L55">
+      <c r="L57" s="21">
         <f>L54+(E5/6)</f>
         <v>14.166666666666666</v>
       </c>
-      <c r="M55">
+      <c r="M57" s="21">
         <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
-    </row>
-    <row r="56" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K56" t="s">
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <f>_xlfn.CONCAT("At ", (ROUNDEIGHTH(L60)), "in away from line A, mark the letter ",K60)</f>
+        <v>At 18.25in away from line A, mark the letter O</v>
+      </c>
+      <c r="K58" t="s">
         <v>187</v>
       </c>
-      <c r="L56">
+      <c r="L58" s="21">
         <f>E5</f>
         <v>16</v>
       </c>
-      <c r="M56">
+      <c r="M58" s="21">
         <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
-    </row>
-    <row r="57" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K57" t="s">
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K59" t="s">
         <v>188</v>
       </c>
-      <c r="L57">
-        <f>L56+2.25</f>
+      <c r="L59" s="21">
+        <f>L58+2.25</f>
         <v>18.25</v>
       </c>
-      <c r="M57">
+      <c r="M59" s="21">
         <f>M47</f>
         <v>8.3333333333333321</v>
       </c>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="24" t="str">
+        <f>_xlfn.CONCAT("From point D, square across just more than ",ROUNDEIGHTH(L56),"in. Mark point U at the intersection (",(ROUNDEIGHTH(L54)),"in away from line A).")</f>
+        <v>From point D, square across just more than 11.5in. Mark point U at the intersection (11.5in away from line A).</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="K60" t="s">
+        <v>203</v>
+      </c>
+      <c r="L60" s="21">
+        <f>L59</f>
+        <v>18.25</v>
+      </c>
+      <c r="M60" s="21">
+        <f>M48</f>
+        <v>18</v>
+      </c>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="K61" t="s">
+        <v>208</v>
+      </c>
+      <c r="L61" s="21">
+        <f>L57</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="M61" s="21">
+        <f>M45</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K62" t="s">
+        <v>209</v>
+      </c>
+      <c r="L62" s="21">
+        <f>L61+(E5/6)</f>
+        <v>16.833333333333332</v>
+      </c>
+      <c r="M62" s="21">
+        <f>M45</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+    </row>
+    <row r="63" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="24" t="str">
+        <f>_xlfn.CONCAT("From point E, square down through O for a total length of around ", ((ROUNDDOWN(M50-M47,0)) + 3),"in down from I (inexact)")</f>
+        <v>From point E, square down through O for a total length of around 24in down from I (inexact)</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="K63" t="s">
+        <v>210</v>
+      </c>
+      <c r="L63" s="21">
+        <f>E5/6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M63" s="21">
+        <f>M45</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="K64" t="s">
+        <v>211</v>
+      </c>
+      <c r="L64" s="21">
+        <f>L63</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M64" s="21">
+        <v>-0.75</v>
+      </c>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+    </row>
+    <row r="65" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K65" t="s">
+        <v>212</v>
+      </c>
+      <c r="L65" s="21">
+        <f>L52</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="M65" s="22">
+        <f>(((L65-L64)/(L57-L64))*(M57-M64))</f>
+        <v>3.291062801932366</v>
+      </c>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>224</v>
+      </c>
+      <c r="K66" t="s">
+        <v>213</v>
+      </c>
+      <c r="L66" s="21">
+        <f>L45</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="21">
+        <f>M65</f>
+        <v>3.291062801932366</v>
+      </c>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>225</v>
+      </c>
+      <c r="K67" t="s">
+        <v>227</v>
+      </c>
+      <c r="L67" s="21">
+        <f>L54</f>
+        <v>11.5</v>
+      </c>
+      <c r="M67" s="22">
+        <f>(((L67-L66)/(L61-L66))*(M66-M61))</f>
+        <v>2.6715686274509793</v>
+      </c>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <f>_xlfn.CONCAT("Connect points Q and I, and mark point P at ",ROUNDEIGHTH(E5/6),"in from Q along this line.")</f>
+        <v>Connect points Q and I, and mark point P at 2.625in from Q along this line.</v>
+      </c>
+      <c r="K68" t="s">
+        <v>222</v>
+      </c>
+      <c r="L68" s="21">
+        <f>(E5/6)*((L59-L62)/SQRT((M59-M62)^2 + (L59-L62)^2))+L62</f>
+        <v>17.280254650490317</v>
+      </c>
+      <c r="M68" s="21">
+        <f>(E5/6)*((M59-M62)/SQRT((M59-M62)^2 + (L61-L62)^2))+M62</f>
+        <v>2.5397977258648643</v>
+      </c>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="B55:I56"/>
+    <mergeCell ref="B60:I61"/>
+    <mergeCell ref="B63:I64"/>
     <mergeCell ref="B26:I27"/>
+    <mergeCell ref="B34:I35"/>
+    <mergeCell ref="B47:I48"/>
+    <mergeCell ref="B41:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L66" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Supreme System Blue Book/System Equations.xlsx
+++ b/Supreme System Blue Book/System Equations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\Programming Projects\InterpolationDraping\InterpolationDraping\Supreme System Blue Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B98BB22-5767-42D5-9A61-6822E4EAF31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B576414E-69E6-4571-8473-3031E49EA663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1432,7 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB0D73-498E-414D-A33D-744DBB5FBF62}">
   <dimension ref="A2:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45:M68"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Supreme System Blue Book/System Equations.xlsx
+++ b/Supreme System Blue Book/System Equations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\Programming Projects\InterpolationDraping\InterpolationDraping\Supreme System Blue Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B576414E-69E6-4571-8473-3031E49EA663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94430F26-B8FF-4D5C-A47F-BD3BD7D20949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB0D73-498E-414D-A33D-744DBB5FBF62}">
   <dimension ref="A2:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
